--- a/xlsx/华尔街日报_intext.xlsx
+++ b/xlsx/华尔街日报_intext.xlsx
@@ -15,249 +15,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>华尔街日报</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>日报</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_华尔街日报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>大报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%C2%B7%E7%93%8A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>道·琼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>新闻集团</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Les_Hinton</t>
+  </si>
+  <si>
+    <t>en-Les Hinton</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Robert_James_Thomson</t>
+  </si>
+  <si>
+    <t>en-Robert James Thomson</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
+  </si>
+  <si>
+    <t>曼哈顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
+  </si>
+  <si>
+    <t>国际标准期刊号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E7%90%BC%E6%96%AF%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>道琼斯公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%97%B6%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>金融时报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%91%8A</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>今日美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E5%B0%94%C2%B7%E6%99%AE%E4%BA%AC</t>
+  </si>
+  <si>
+    <t>弗拉基米尔·普京</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E5%9C%B0%E4%BA%A7</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Clarence_W._Barron</t>
+  </si>
+  <si>
+    <t>en-Clarence W. Barron</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E4%BD%93%E4%B8%AD%E6%96%87</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E4%B8%AD%E6%96%87</t>
+  </si>
+  <si>
+    <t>繁体中文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>中国大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E7%81%AB%E9%95%BF%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>防火长城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E5%82%98%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>雨伞革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94</t>
+  </si>
+  <si>
+    <t>媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>网路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/PewDiePie</t>
+  </si>
+  <si>
+    <t>PewDiePie</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>社会研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>经济自由度指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>日報</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_华尔街日报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>大报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%C2%B7%E7%93%8A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>道·瓊斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>新闻集团</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Les_Hinton</t>
-  </si>
-  <si>
-    <t>en-Les Hinton</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Robert_James_Thomson</t>
-  </si>
-  <si>
-    <t>en-Robert James Thomson</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紐約州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
-  </si>
-  <si>
-    <t>曼哈頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
-  </si>
-  <si>
-    <t>國際標準期刊號</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
-  </si>
-  <si>
-    <t>金融</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>日报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E7%90%BC%E6%96%AF%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>道琼斯公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%97%B6%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>金融时报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%91%8A</t>
-  </si>
-  <si>
-    <t>广告</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>今日美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E5%B0%94%C2%B7%E6%99%AE%E4%BA%AC</t>
-  </si>
-  <si>
-    <t>弗拉基米尔·普京</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84</t>
-  </si>
-  <si>
-    <t>投资</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E5%9C%B0%E4%BA%A7</t>
-  </si>
-  <si>
-    <t>房地产</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Clarence_W._Barron</t>
-  </si>
-  <si>
-    <t>en-Clarence W. Barron</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E4%BD%93%E4%B8%AD%E6%96%87</t>
-  </si>
-  <si>
-    <t>简体中文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E4%B8%AD%E6%96%87</t>
-  </si>
-  <si>
-    <t>繁體中文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>中国大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E7%81%AB%E9%95%BF%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>防火长城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E5%82%98%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>雨傘革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94</t>
-  </si>
-  <si>
-    <t>媒體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>網路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/PewDiePie</t>
-  </si>
-  <si>
-    <t>PewDiePie</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>社會研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>经济自由度指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -606,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -1034,7 +1040,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>28</v>
@@ -1060,10 +1066,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1089,10 +1095,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1118,10 +1124,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1147,10 +1153,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1176,10 +1182,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1205,10 +1211,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1234,10 +1240,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1263,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1292,10 +1298,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1321,10 +1327,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1350,10 +1356,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1379,10 +1385,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1408,10 +1414,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1437,10 +1443,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1466,10 +1472,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1495,10 +1501,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1524,10 +1530,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1553,10 +1559,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1582,10 +1588,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1611,10 +1617,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1640,10 +1646,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1669,10 +1675,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1698,10 +1704,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1727,10 +1733,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1756,18 +1762,76 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
         <v>80</v>
       </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="F41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" t="n">
         <v>3</v>
       </c>
     </row>
